--- a/app/data/alumni_verified.xlsx
+++ b/app/data/alumni_verified.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,30 +441,70 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>nim</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>email</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>nim</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>jenis kelamin</t>
+          <t>tempat_lahir</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>tahun</t>
+          <t>tanggal_lahir</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>jenis_kelamin</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>agama</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>alamat</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>tahun_lulus</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ipk</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>judul_skripsi</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>pekerjaan</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>tempat_bekerja</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>status</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>foto</t>
         </is>
@@ -476,77 +516,77 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sandarma Natapaima Nainggolan</t>
+          <t>Alexander The Great</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>nsandarma@gmail.com</t>
+          <t>190180078</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>190180088</t>
+          <t>alex@gmaill.com</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>Mesir</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2000-05-09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>Laki-Laki</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>ACEH TAMIANG</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>3,7</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Analisis</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Manager</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Medan</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>verified</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>me.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>aqhsal</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>aqhsalfaisal@gmail.com</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1901820</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Perempuan</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>verified</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>oye.png</t>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Alexander_the_Great_mosaic_cropped.jpg</t>
         </is>
       </c>
     </row>
